--- a/pred_ohlcv/54_21/2020-01-23 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 EOS ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-12763.42656503</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-12763.42656503</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14754.80656503</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-13525.15446503</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-13500.11106503</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-13500.11106503</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-13477.82313984</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-7839.351731760002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-29432.47853176</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-28579.81833176</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-29314.41833176</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-11813.09363176</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4238.578368240003</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>8795.875168240003</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>8568.487168240003</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>9440.487168240003</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>9740.888368240001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>12400.48296824</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>10898.98296824</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>10898.98296824</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>11029.59236824</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>11043.55611373</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>29685.76101373</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>29784.11091373</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>29784.11091373</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>30054.90221373</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>30354.90221373</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>29207.26331373</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>29207.26331373</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>30539.25401373</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>26616.65011373</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>26019.23131373</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>26019.23131373</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>31205.23944831</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>22199.05796811001</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>36581.14100422002</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>37291.32470422002</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>35449.05190422002</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>35449.05190422002</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>35516.12206558002</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>37087.06236558002</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>33266.26066558002</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>33266.59816558002</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>33266.59816558002</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>34295.93466558002</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>34295.93466558002</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>31638.61111749002</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>32084.60891749002</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>32084.60891749002</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>37459.99468084002</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>41390.25098084002</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>39476.26898084002</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>41391.82618084002</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>54091.12378084002</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>69219.21891052002</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>117600.35031052</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>121584.40764236</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>126729.17817074</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>124559.26177074</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>121855.07790693</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>127755.07790693</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>127755.07790693</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>130405.58480693</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>132319.5469285</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>132319.5469285</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>118615.2867285</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>111619.6706285</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>93968.80362850003</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>97729.83142850002</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>94656.75382850002</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>78489.40502850001</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>80920.84152850001</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>77911.30539451001</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>81497.87169451002</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>81520.64679451002</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>81512.72398397002</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>77808.26076327005</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>77808.26076327005</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>71782.12786327006</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>71774.47786327006</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>71669.59096327006</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 EOS ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-12763.42656503</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-12763.42656503</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14754.80656503</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-13525.15446503</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-13500.11106503</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-13500.11106503</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-13477.82313984</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-7839.351731760002</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-29432.47853176</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-29314.41833176</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-11813.09363176</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>4238.578368240003</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>8795.875168240003</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>8568.487168240003</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>9440.487168240003</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>9740.888368240001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>12400.48296824</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>10898.98296824</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>10898.98296824</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>11029.59236824</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>11043.55611373</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>29685.76101373</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>29784.11091373</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>29784.11091373</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>30054.90221373</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>30354.90221373</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>29207.26331373</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>29207.26331373</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>30179.33761373</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>30539.25401373</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>26616.65011373</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>26019.23131373</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>26019.23131373</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>31205.23944831</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>22199.05796811001</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>36581.14100422002</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>37291.32470422002</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>35449.05190422002</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>35449.05190422002</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>35516.12206558002</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>37087.06236558002</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>33266.26066558002</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>33266.59816558002</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>33266.59816558002</v>
       </c>
       <c r="H647">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>34295.93466558002</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>34295.93466558002</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>31638.61111749002</v>
       </c>
       <c r="H650">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>32084.60891749002</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>32084.60891749002</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>37459.99468084002</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>41390.25098084002</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>39476.26898084002</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>41391.82618084002</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>54091.12378084002</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>69219.21891052002</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>117600.35031052</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>121584.40764236</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>126729.17817074</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>124559.26177074</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>121855.07790693</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>127755.07790693</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>127755.07790693</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>130405.58480693</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>132319.5469285</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>132319.5469285</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>118615.2867285</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>111619.6706285</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>97729.83142850002</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>94656.75382850002</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>80920.84152850001</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>77911.30539451001</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>81497.87169451002</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>81520.64679451002</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>81512.72398397002</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>77808.26076327005</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>77808.26076327005</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>71782.12786327006</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>71774.47786327006</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>71669.59096327006</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
